--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -24,15 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>measured_t_pass</t>
   </si>
   <si>
-    <t>us</t>
+    <t>center_value</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>us</c:v>
+                  <c:v>measured_t_pass</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -315,130 +315,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>15991</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16104</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16726</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16425</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16706</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16786</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16947</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17223</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18718</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19218</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20645</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23460</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27138</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32232</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27072</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25046</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18598</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29184</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23552</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47434</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35161</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32398</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32228</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26141</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21840</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19578</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19360</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18503</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18253</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17580</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17481</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16505</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17063</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16324</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16295</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16322</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16809</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16425</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16485</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16990</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,6 +463,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>center_check input</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -546,6 +580,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>measured t pass (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -685,6 +774,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Right Servo'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>measured_t_pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -707,103 +807,302 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.4359142607174103E-3"/>
-                  <c:y val="0.15208624963546219"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Right Servo'!$A$24:$A$29</c:f>
+              <c:f>'Right Servo'!$E$4:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1450</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1440</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
+                <c:pt idx="41">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Right Servo'!$B$25:$B$29</c:f>
+              <c:f>'Right Servo'!$F$4:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>35161</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32398</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32228</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26141</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21840</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +1110,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6530-47C9-BD08-3A6222D9D17F}"/>
+              <c16:uniqueId val="{00000000-B172-4290-9015-300FE4861CC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -823,11 +1122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590794704"/>
-        <c:axId val="590793064"/>
+        <c:axId val="545211616"/>
+        <c:axId val="545207680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590794704"/>
+        <c:axId val="545211616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,6 +1146,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>center_check</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> input (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -884,12 +1243,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590793064"/>
+        <c:crossAx val="545207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590793064"/>
+        <c:axId val="545207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,6 +1268,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>measured_t_pass (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -946,721 +1360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590794704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.28422550306211725"/>
-                  <c:y val="1.8101851851851852E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Right Servo'!$A$27:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1390</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Right Servo'!$B$27:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21840</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1E5-402F-BCCF-5A4B986F1462}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="489874896"/>
-        <c:axId val="489879816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="489874896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489879816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="489879816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489874896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.4991469816272962E-2"/>
-                  <c:y val="0.13387321376494604"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Right Servo'!$A$13:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1540</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1530</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Right Servo'!$B$13:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>19218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20645</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C94E-4EDA-B8D3-59154E3FC4E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="590784208"/>
-        <c:axId val="590784536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="590784208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="590784536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="590784536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="590784208"/>
+        <c:crossAx val="545211616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1789,86 +1489,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2901,1052 +2521,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3973,23 +2561,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61749484-30A7-4BEF-B51D-29F58171F15B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0E66AE-B2EE-4EF6-AC47-03D9B39007EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,78 +2590,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2685779-5978-4540-BCA5-84D721703D3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78C3475-1847-4FBA-98F8-75A36E906AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4379,361 +2895,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1650</v>
       </c>
       <c r="B4">
-        <v>15991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1400</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1640</v>
       </c>
       <c r="B5">
-        <v>16104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1401</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1630</v>
       </c>
       <c r="B6">
-        <v>16726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1402</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1620</v>
       </c>
       <c r="B7">
-        <v>16425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1403</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1610</v>
       </c>
       <c r="B8">
-        <v>16706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1404</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1600</v>
       </c>
       <c r="B9">
-        <v>16786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1405</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1590</v>
       </c>
       <c r="B10">
-        <v>16947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>1406</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1580</v>
       </c>
       <c r="B11">
-        <v>17223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1407</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1570</v>
       </c>
       <c r="B12">
-        <v>18718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1408</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1560</v>
       </c>
       <c r="B13">
-        <v>19218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1409</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1550</v>
       </c>
       <c r="B14">
-        <v>20645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1410</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1540</v>
       </c>
       <c r="B15">
-        <v>23460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1411</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1530</v>
       </c>
       <c r="B16">
-        <v>27138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>1412</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1520</v>
       </c>
       <c r="B17">
-        <v>32232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1413</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1510</v>
       </c>
       <c r="B18">
-        <v>27072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>1414</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1500</v>
       </c>
       <c r="B19">
-        <v>25046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>1415</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1490</v>
       </c>
       <c r="B20">
-        <v>18598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>1416</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1480</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>1417</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1470</v>
       </c>
       <c r="B22">
-        <v>29184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E22">
+        <v>1418</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1460</v>
       </c>
       <c r="B23">
-        <v>23552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E23">
+        <v>1419</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1450</v>
       </c>
       <c r="B24">
-        <v>47434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>1420</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1440</v>
       </c>
       <c r="B25">
-        <v>35161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>1421</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1430</v>
       </c>
       <c r="B26">
-        <v>32398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>1422</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1420</v>
       </c>
       <c r="B27">
-        <v>32228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>1423</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1410</v>
       </c>
       <c r="B28">
-        <v>26141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1424</v>
+      </c>
+      <c r="F28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1400</v>
       </c>
       <c r="B29">
-        <v>21840</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>1425</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1390</v>
       </c>
       <c r="B30">
-        <v>19578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>1426</v>
+      </c>
+      <c r="F30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1380</v>
       </c>
       <c r="B31">
-        <v>19360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>1427</v>
+      </c>
+      <c r="F31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1370</v>
       </c>
       <c r="B32">
-        <v>18503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>1428</v>
+      </c>
+      <c r="F32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1360</v>
       </c>
       <c r="B33">
-        <v>18253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>1429</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1350</v>
       </c>
       <c r="B34">
-        <v>17580</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>1430</v>
+      </c>
+      <c r="F34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1340</v>
       </c>
       <c r="B35">
-        <v>17481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>1431</v>
+      </c>
+      <c r="F35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1330</v>
       </c>
       <c r="B36">
-        <v>16505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>1432</v>
+      </c>
+      <c r="F36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1320</v>
       </c>
       <c r="B37">
-        <v>17063</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>1433</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1310</v>
       </c>
       <c r="B38">
-        <v>16925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>1434</v>
+      </c>
+      <c r="F38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1300</v>
       </c>
-      <c r="B39">
-        <v>16324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1435</v>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1290</v>
       </c>
-      <c r="B40">
-        <v>16295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1436</v>
+      </c>
+      <c r="F40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1280</v>
       </c>
-      <c r="B41">
-        <v>16322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1437</v>
+      </c>
+      <c r="F41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1270</v>
       </c>
-      <c r="B42">
-        <v>16809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1438</v>
+      </c>
+      <c r="F42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1260</v>
       </c>
-      <c r="B43">
-        <v>16425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1439</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1250</v>
       </c>
-      <c r="B44">
-        <v>16485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1440</v>
+      </c>
+      <c r="F44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1240</v>
       </c>
-      <c r="B45">
-        <v>16990</v>
+      <c r="E45">
+        <v>1441</v>
+      </c>
+      <c r="F45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>1442</v>
+      </c>
+      <c r="F46">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>1443</v>
+      </c>
+      <c r="F47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>1444</v>
+      </c>
+      <c r="F48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>1445</v>
+      </c>
+      <c r="F49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>1446</v>
+      </c>
+      <c r="F50">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7540"/>
   </bookViews>
   <sheets>
     <sheet name="Right Servo" sheetId="1" r:id="rId1"/>
@@ -2525,16 +2525,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2561,16 +2561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2898,10 +2898,13 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212454356\Documents\GitHub\me644\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Grafton/Documents/GitHub/me644/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88659E7-D337-514F-B643-346CA56519E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="24100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Right Servo" sheetId="1" r:id="rId1"/>
+    <sheet name="Center Check" sheetId="3" r:id="rId1"/>
+    <sheet name="RHS A" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="rhs_a" localSheetId="1">'RHS A'!#REF!</definedName>
+    <definedName name="rhs_a_1" localSheetId="1">'RHS A'!$A$1:$B$173</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,24 +29,57 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{EE9E53FF-2B13-3749-B0F6-C1F5F18A78BD}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/rhs-a.csv" tab="0" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>A</t>
+    <t xml:space="preserve"> Measured T Pass</t>
   </si>
   <si>
-    <t>measured_t_pass</t>
+    <t>Servo Input</t>
   </si>
   <si>
-    <t>center_value</t>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>LHS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,8 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,19 +186,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Right Servo'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>measured_t_pass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -175,257 +210,46 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Right Servo'!$A$4:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1630</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1620</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1590</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1580</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1540</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1530</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1480</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1470</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1380</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1370</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1340</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1320</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1290</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1240</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'RHS A'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Right Servo'!$B$4:$B$45</c:f>
+              <c:f>'RHS A'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'RHS A'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D15-40CE-9DA3-B8A27C432285}"/>
+              <c16:uniqueId val="{00000000-35D3-1649-81FD-47ACB49F56D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -437,15 +261,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489881784"/>
-        <c:axId val="489878176"/>
+        <c:axId val="827404624"/>
+        <c:axId val="827406352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489881784"/>
+        <c:axId val="827404624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1660"/>
-          <c:min val="1220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -463,61 +285,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>center_check input</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -555,12 +322,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489878176"/>
+        <c:crossAx val="827406352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489878176"/>
+        <c:axId val="827406352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,61 +347,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>measured t pass (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -672,7 +384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489881784"/>
+        <c:crossAx val="827404624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -686,6 +398,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -736,6 +455,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RHS, A, Upsweep</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -774,19 +518,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Right Servo'!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>measured_t_pass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -807,302 +540,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10624453193350832"/>
+                  <c:y val="-0.29516149023038785"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Right Servo'!$E$4:$E$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="0">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1401</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1403</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1405</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1406</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1407</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1409</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1412</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1413</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1415</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1416</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1417</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1418</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1419</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1421</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1424</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1425</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1426</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1427</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1428</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1429</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1431</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1432</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1433</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1435</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1436</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1437</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1438</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1439</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1441</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1443</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1444</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1445</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1446</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'RHS A'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Right Servo'!$F$4:$F$50</c:f>
+              <c:f>'RHS A'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>87</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +610,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B172-4290-9015-300FE4861CC1}"/>
+              <c16:uniqueId val="{00000000-5B5C-B445-9D61-3975576B14C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="545211616"/>
-        <c:axId val="545207680"/>
+        <c:axId val="794707328"/>
+        <c:axId val="642499408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545211616"/>
+        <c:axId val="794707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,66 +646,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>center_check</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> input (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1243,12 +683,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545207680"/>
+        <c:crossAx val="642499408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545207680"/>
+        <c:axId val="642499408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,61 +708,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>measured_t_pass (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1360,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545211616"/>
+        <c:crossAx val="794707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1374,6 +759,2352 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RHS A'!$A$2:$A$973</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="972"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RHS A'!$B$2:$B$973</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="972"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8B7-AA44-9D51-D79A712830D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="795894032"/>
+        <c:axId val="796627056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="795894032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1550"/>
+          <c:min val="1350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796627056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="796627056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795894032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &lt; Center</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5656084390725042E-2"/>
+                  <c:y val="-0.2099575444918915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RHS A'!$A$84:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RHS A'!$B$84:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E26D-4D4E-AA88-C033DC65FE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="892054992"/>
+        <c:axId val="892056672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="892054992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1455"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892056672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="892056672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892054992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region &gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Center</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0164725172065363E-2"/>
+                  <c:y val="-0.63541011527164115"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RHS A'!$A$107:$A$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RHS A'!$B$107:$B$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-198B-A34F-B076-EC84C2959AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828087616"/>
+        <c:axId val="827779680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828087616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827779680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827779680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828087616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1489,6 +3220,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2521,27 +4372,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6239A8DD-5394-45E3-B353-7A868F2CBBF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9740B578-E732-114F-BE87-35A78926F0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,23 +5960,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0E66AE-B2EE-4EF6-AC47-03D9B39007EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68221F0-ADBE-7E41-8437-4E6468BB6C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +5994,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3E3E27-464E-3F44-B9C4-07956E3465F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE96BDE-903E-644E-8C34-C2B44B29B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200E6A9B-6FFE-E545-87F5-6FC2DFBD2090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="1" xr16:uid="{1E855D30-22A2-EA49-B4D0-F86E6C6C83FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2894,642 +6405,1465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D525BC1C-EB49-EC40-8F49-77B7D3775B72}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1465</v>
+      </c>
+      <c r="B3">
+        <v>1472</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3-((B3-A3)/2)</f>
+        <v>1468.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A6DA7-5A93-044B-9FE3-F7099E72EAD2}">
+  <dimension ref="A1:B173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A126" sqref="A107:B126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1350</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1351</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1650</v>
+        <v>1352</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>1400</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1640</v>
+        <v>1353</v>
       </c>
       <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>1401</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1630</v>
+        <v>1354</v>
       </c>
       <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>1402</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1620</v>
+        <v>1355</v>
       </c>
       <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1403</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1610</v>
+        <v>1356</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="E8">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1357</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1358</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1359</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1360</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1361</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1362</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1363</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1364</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1365</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1366</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1367</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1368</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1369</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1370</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1371</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1372</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1373</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1374</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1375</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1376</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1377</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1378</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1379</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1380</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1381</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1382</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1383</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1384</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1385</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1386</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1387</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1388</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1389</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1390</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1391</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1392</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1393</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1394</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1395</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1396</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1397</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1398</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1399</v>
+      </c>
+      <c r="B51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1400</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1401</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1402</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1403</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>1404</v>
       </c>
-      <c r="F8">
+      <c r="B56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1405</v>
+      </c>
+      <c r="B57">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1600</v>
-      </c>
-      <c r="B9">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1406</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1407</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1408</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1409</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1410</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1411</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1412</v>
+      </c>
+      <c r="B64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1413</v>
+      </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1414</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1415</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1416</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1417</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1418</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1419</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1420</v>
+      </c>
+      <c r="B72">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1421</v>
+      </c>
+      <c r="B73">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1422</v>
+      </c>
+      <c r="B74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1423</v>
+      </c>
+      <c r="B75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1424</v>
+      </c>
+      <c r="B76">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1425</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1426</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1427</v>
+      </c>
+      <c r="B79">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1428</v>
+      </c>
+      <c r="B80">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1429</v>
+      </c>
+      <c r="B81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1430</v>
+      </c>
+      <c r="B82">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1431</v>
+      </c>
+      <c r="B83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1432</v>
+      </c>
+      <c r="B84">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1433</v>
+      </c>
+      <c r="B85">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1434</v>
+      </c>
+      <c r="B86">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1435</v>
+      </c>
+      <c r="B87">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1436</v>
+      </c>
+      <c r="B88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1437</v>
+      </c>
+      <c r="B89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1438</v>
+      </c>
+      <c r="B90">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1439</v>
+      </c>
+      <c r="B91">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1440</v>
+      </c>
+      <c r="B92">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1441</v>
+      </c>
+      <c r="B93">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1442</v>
+      </c>
+      <c r="B94">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1443</v>
+      </c>
+      <c r="B95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1444</v>
+      </c>
+      <c r="B96">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1445</v>
+      </c>
+      <c r="B97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1446</v>
+      </c>
+      <c r="B98">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1447</v>
+      </c>
+      <c r="B99">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1448</v>
+      </c>
+      <c r="B100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1449</v>
+      </c>
+      <c r="B101">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1450</v>
+      </c>
+      <c r="B102">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1451</v>
+      </c>
+      <c r="B103">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1452</v>
+      </c>
+      <c r="B104">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1453</v>
+      </c>
+      <c r="B105">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1454</v>
+      </c>
+      <c r="B106">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1484</v>
+      </c>
+      <c r="B107">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1485</v>
+      </c>
+      <c r="B108">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1486</v>
+      </c>
+      <c r="B109">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1487</v>
+      </c>
+      <c r="B110">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1488</v>
+      </c>
+      <c r="B111">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1489</v>
+      </c>
+      <c r="B112">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1490</v>
+      </c>
+      <c r="B113">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1491</v>
+      </c>
+      <c r="B114">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1492</v>
+      </c>
+      <c r="B115">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1493</v>
+      </c>
+      <c r="B116">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1494</v>
+      </c>
+      <c r="B117">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1495</v>
+      </c>
+      <c r="B118">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1496</v>
+      </c>
+      <c r="B119">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1497</v>
+      </c>
+      <c r="B120">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1498</v>
+      </c>
+      <c r="B121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1499</v>
+      </c>
+      <c r="B122">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1500</v>
+      </c>
+      <c r="B123">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1501</v>
+      </c>
+      <c r="B124">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1502</v>
+      </c>
+      <c r="B125">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1503</v>
+      </c>
+      <c r="B126">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1504</v>
+      </c>
+      <c r="B127">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1505</v>
+      </c>
+      <c r="B128">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1506</v>
+      </c>
+      <c r="B129">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1507</v>
+      </c>
+      <c r="B130">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1508</v>
+      </c>
+      <c r="B131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1509</v>
+      </c>
+      <c r="B132">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1510</v>
+      </c>
+      <c r="B133">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1511</v>
+      </c>
+      <c r="B134">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1512</v>
+      </c>
+      <c r="B135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1513</v>
+      </c>
+      <c r="B136">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1514</v>
+      </c>
+      <c r="B137">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1515</v>
+      </c>
+      <c r="B138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1516</v>
+      </c>
+      <c r="B139">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1517</v>
+      </c>
+      <c r="B140">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1518</v>
+      </c>
+      <c r="B141">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1519</v>
+      </c>
+      <c r="B142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1520</v>
+      </c>
+      <c r="B143">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1521</v>
+      </c>
+      <c r="B144">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1522</v>
+      </c>
+      <c r="B145">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1523</v>
+      </c>
+      <c r="B146">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1524</v>
+      </c>
+      <c r="B147">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1525</v>
+      </c>
+      <c r="B148">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1526</v>
+      </c>
+      <c r="B149">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1527</v>
+      </c>
+      <c r="B150">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1528</v>
+      </c>
+      <c r="B151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1529</v>
+      </c>
+      <c r="B152">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1530</v>
+      </c>
+      <c r="B153">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1531</v>
+      </c>
+      <c r="B154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1532</v>
+      </c>
+      <c r="B155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1533</v>
+      </c>
+      <c r="B156">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1534</v>
+      </c>
+      <c r="B157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1535</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1536</v>
+      </c>
+      <c r="B159">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1537</v>
+      </c>
+      <c r="B160">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1538</v>
+      </c>
+      <c r="B161">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1405</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1590</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>1406</v>
-      </c>
-      <c r="F10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1580</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>1407</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1570</v>
-      </c>
-      <c r="B12">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1539</v>
+      </c>
+      <c r="B162">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1540</v>
+      </c>
+      <c r="B163">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1541</v>
+      </c>
+      <c r="B164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1542</v>
+      </c>
+      <c r="B165">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1543</v>
+      </c>
+      <c r="B166">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1544</v>
+      </c>
+      <c r="B167">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1545</v>
+      </c>
+      <c r="B168">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1546</v>
+      </c>
+      <c r="B169">
         <v>21</v>
       </c>
-      <c r="E12">
-        <v>1408</v>
-      </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1560</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1409</v>
-      </c>
-      <c r="F13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1547</v>
+      </c>
+      <c r="B170">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1548</v>
+      </c>
+      <c r="B171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1549</v>
+      </c>
+      <c r="B172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
         <v>1550</v>
       </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1410</v>
-      </c>
-      <c r="F14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1540</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>1411</v>
-      </c>
-      <c r="F15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1530</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>1412</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1520</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="E17">
-        <v>1413</v>
-      </c>
-      <c r="F17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1510</v>
-      </c>
-      <c r="B18">
-        <v>52</v>
-      </c>
-      <c r="E18">
-        <v>1414</v>
-      </c>
-      <c r="F18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1500</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>1415</v>
-      </c>
-      <c r="F19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1490</v>
-      </c>
-      <c r="B20">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>1416</v>
-      </c>
-      <c r="F20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1480</v>
-      </c>
-      <c r="B21">
-        <v>68</v>
-      </c>
-      <c r="E21">
-        <v>1417</v>
-      </c>
-      <c r="F21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1470</v>
-      </c>
-      <c r="B22">
-        <v>152</v>
-      </c>
-      <c r="E22">
-        <v>1418</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1460</v>
-      </c>
-      <c r="B23">
-        <v>133</v>
-      </c>
-      <c r="E23">
-        <v>1419</v>
-      </c>
-      <c r="F23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1450</v>
-      </c>
-      <c r="B24">
-        <v>67</v>
-      </c>
-      <c r="E24">
-        <v>1420</v>
-      </c>
-      <c r="F24">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1440</v>
-      </c>
-      <c r="B25">
-        <v>43</v>
-      </c>
-      <c r="E25">
-        <v>1421</v>
-      </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1430</v>
-      </c>
-      <c r="B26">
-        <v>35</v>
-      </c>
-      <c r="E26">
-        <v>1422</v>
-      </c>
-      <c r="F26">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1420</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>1423</v>
-      </c>
-      <c r="F27">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1410</v>
-      </c>
-      <c r="B28">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>1424</v>
-      </c>
-      <c r="F28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1400</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>1425</v>
-      </c>
-      <c r="F29">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1390</v>
-      </c>
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>1426</v>
-      </c>
-      <c r="F30">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1380</v>
-      </c>
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>1427</v>
-      </c>
-      <c r="F31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1370</v>
-      </c>
-      <c r="B32">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>1428</v>
-      </c>
-      <c r="F32">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1360</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>1429</v>
-      </c>
-      <c r="F33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1350</v>
-      </c>
-      <c r="B34">
-        <v>19</v>
-      </c>
-      <c r="E34">
-        <v>1430</v>
-      </c>
-      <c r="F34">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1340</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>1431</v>
-      </c>
-      <c r="F35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1330</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>1432</v>
-      </c>
-      <c r="F36">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1320</v>
-      </c>
-      <c r="B37">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>1433</v>
-      </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1310</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <v>1434</v>
-      </c>
-      <c r="F38">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1300</v>
-      </c>
-      <c r="E39">
-        <v>1435</v>
-      </c>
-      <c r="F39">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>1290</v>
-      </c>
-      <c r="E40">
-        <v>1436</v>
-      </c>
-      <c r="F40">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>1280</v>
-      </c>
-      <c r="E41">
-        <v>1437</v>
-      </c>
-      <c r="F41">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>1270</v>
-      </c>
-      <c r="E42">
-        <v>1438</v>
-      </c>
-      <c r="F42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>1260</v>
-      </c>
-      <c r="E43">
-        <v>1439</v>
-      </c>
-      <c r="F43">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>1250</v>
-      </c>
-      <c r="E44">
-        <v>1440</v>
-      </c>
-      <c r="F44">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1240</v>
-      </c>
-      <c r="E45">
-        <v>1441</v>
-      </c>
-      <c r="F45">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E46">
-        <v>1442</v>
-      </c>
-      <c r="F46">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E47">
-        <v>1443</v>
-      </c>
-      <c r="F47">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E48">
-        <v>1444</v>
-      </c>
-      <c r="F48">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E49">
-        <v>1445</v>
-      </c>
-      <c r="F49">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E50">
-        <v>1446</v>
-      </c>
-      <c r="F50">
-        <v>87</v>
+      <c r="B173">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Grafton/Documents/GitHub/me644/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88659E7-D337-514F-B643-346CA56519E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E32CF-C30F-BB40-9285-F8114C3A5EC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="24100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="24100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Center Check" sheetId="3" r:id="rId1"/>
     <sheet name="RHS A" sheetId="2" r:id="rId2"/>
+    <sheet name="LHS A" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="lhs_a" localSheetId="2">'LHS A'!$A$1:$B$173</definedName>
     <definedName name="rhs_a" localSheetId="1">'RHS A'!#REF!</definedName>
     <definedName name="rhs_a_1" localSheetId="1">'RHS A'!$A$1:$B$173</definedName>
   </definedNames>
@@ -31,8 +33,16 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{EE9E53FF-2B13-3749-B0F6-C1F5F18A78BD}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/rhs-a.csv" tab="0" comma="1">
+  <connection id="1" xr16:uid="{31DD2473-E75E-724B-97B0-0D3BC3BF40D6}" name="lhs-a" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/lhs-a.csv" tab="0" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/rhs-a.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -43,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve"> Measured T Pass</t>
   </si>
@@ -112,10 +122,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3140,6 +3150,2344 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LHS A'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Measured T Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$2:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="172"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$2:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="172"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA71-684F-B99A-2CF6D96AFD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402383968"/>
+        <c:axId val="547306080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402383968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547306080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547306080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402383968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region &lt; Center</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44158588995452031"/>
+          <c:y val="1.511879049676026E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8921778418878564E-2"/>
+                  <c:y val="-0.17472491964422374"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$110:$A$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$110:$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C5F-214D-869C-4E86C43940AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547300416"/>
+        <c:axId val="503006432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547300416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503006432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503006432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547300416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region &gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Center</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6934573592808673E-2"/>
+                  <c:y val="-0.72160623089142062"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$129:$A$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$129:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76F1-5240-B24E-64105656481B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547533856"/>
+        <c:axId val="548259040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547533856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548259040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548259040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547533856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3340,6 +5688,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5405,6 +7873,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6105,8 +10121,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD55137-80C4-824A-B859-DA68E3B32320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E1D773-62F6-D146-8C88-0ED9C5D73EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAB8553-D2B0-7646-8BE0-37CDACD54639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="1" xr16:uid="{1E855D30-22A2-EA49-B4D0-F86E6C6C83FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-a" connectionId="1" xr16:uid="{ABBD3DF8-C691-E446-835B-DBBDC02394BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6409,22 +10542,22 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6453,9 +10586,19 @@
       <c r="B3">
         <v>1472</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>B3-((B3-A3)/2)</f>
         <v>1468.5</v>
+      </c>
+      <c r="G3">
+        <v>1487</v>
+      </c>
+      <c r="H3">
+        <v>1494</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3-((H3-G3)/2)</f>
+        <v>1490.5</v>
       </c>
     </row>
   </sheetData>
@@ -6472,7 +10615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A6DA7-5A93-044B-9FE3-F7099E72EAD2}">
   <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A126" sqref="A107:B126"/>
     </sheetView>
   </sheetViews>
@@ -7870,4 +12013,1408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2581D9B6-B24D-C04E-8CCD-6F4115F4ED06}">
+  <dimension ref="A1:B173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1350</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1351</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1352</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1353</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1354</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1355</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1356</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1357</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1358</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1359</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1360</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1361</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1362</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1363</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1364</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1365</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1366</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1367</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1368</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1369</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1370</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1371</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1372</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1373</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1374</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1375</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1376</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1377</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1378</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1379</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1380</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1381</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1382</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1383</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1384</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1385</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1386</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1387</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1388</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1389</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1390</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1391</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1392</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1393</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1394</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1395</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1396</v>
+      </c>
+      <c r="B48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1397</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1398</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1399</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1400</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1401</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1402</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1403</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1404</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1405</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1406</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1407</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1408</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1409</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1410</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1411</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1412</v>
+      </c>
+      <c r="B64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1413</v>
+      </c>
+      <c r="B65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1414</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1415</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1416</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1417</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1418</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1419</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1420</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1421</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1422</v>
+      </c>
+      <c r="B74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1423</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1424</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1425</v>
+      </c>
+      <c r="B77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1426</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1427</v>
+      </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1428</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1429</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1430</v>
+      </c>
+      <c r="B82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1431</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1432</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1433</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1434</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1435</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1436</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1437</v>
+      </c>
+      <c r="B89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1438</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1439</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1440</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1441</v>
+      </c>
+      <c r="B93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1442</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1443</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1444</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1445</v>
+      </c>
+      <c r="B97">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1446</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1447</v>
+      </c>
+      <c r="B99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1448</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1449</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1450</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1451</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1452</v>
+      </c>
+      <c r="B104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1453</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1454</v>
+      </c>
+      <c r="B106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1455</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1456</v>
+      </c>
+      <c r="B108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1457</v>
+      </c>
+      <c r="B109">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1458</v>
+      </c>
+      <c r="B110">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1459</v>
+      </c>
+      <c r="B111">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1460</v>
+      </c>
+      <c r="B112">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1461</v>
+      </c>
+      <c r="B113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1462</v>
+      </c>
+      <c r="B114">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1463</v>
+      </c>
+      <c r="B115">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1464</v>
+      </c>
+      <c r="B116">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1465</v>
+      </c>
+      <c r="B117">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1466</v>
+      </c>
+      <c r="B118">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1467</v>
+      </c>
+      <c r="B119">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1468</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1469</v>
+      </c>
+      <c r="B121">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1470</v>
+      </c>
+      <c r="B122">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1471</v>
+      </c>
+      <c r="B123">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1472</v>
+      </c>
+      <c r="B124">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1473</v>
+      </c>
+      <c r="B125">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1474</v>
+      </c>
+      <c r="B126">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1475</v>
+      </c>
+      <c r="B127">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1476</v>
+      </c>
+      <c r="B128">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1506</v>
+      </c>
+      <c r="B129">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1507</v>
+      </c>
+      <c r="B130">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1508</v>
+      </c>
+      <c r="B131">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1509</v>
+      </c>
+      <c r="B132">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1510</v>
+      </c>
+      <c r="B133">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1511</v>
+      </c>
+      <c r="B134">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1512</v>
+      </c>
+      <c r="B135">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1513</v>
+      </c>
+      <c r="B136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1514</v>
+      </c>
+      <c r="B137">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1515</v>
+      </c>
+      <c r="B138">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1516</v>
+      </c>
+      <c r="B139">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1517</v>
+      </c>
+      <c r="B140">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1518</v>
+      </c>
+      <c r="B141">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1519</v>
+      </c>
+      <c r="B142">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1520</v>
+      </c>
+      <c r="B143">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1521</v>
+      </c>
+      <c r="B144">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1522</v>
+      </c>
+      <c r="B145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1523</v>
+      </c>
+      <c r="B146">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1524</v>
+      </c>
+      <c r="B147">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1525</v>
+      </c>
+      <c r="B148">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1526</v>
+      </c>
+      <c r="B149">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1527</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1528</v>
+      </c>
+      <c r="B151">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1529</v>
+      </c>
+      <c r="B152">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1530</v>
+      </c>
+      <c r="B153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1531</v>
+      </c>
+      <c r="B154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1532</v>
+      </c>
+      <c r="B155">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1533</v>
+      </c>
+      <c r="B156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1534</v>
+      </c>
+      <c r="B157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1535</v>
+      </c>
+      <c r="B158">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1536</v>
+      </c>
+      <c r="B159">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1537</v>
+      </c>
+      <c r="B160">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1538</v>
+      </c>
+      <c r="B161">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1539</v>
+      </c>
+      <c r="B162">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1540</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1541</v>
+      </c>
+      <c r="B164">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1542</v>
+      </c>
+      <c r="B165">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1543</v>
+      </c>
+      <c r="B166">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1544</v>
+      </c>
+      <c r="B167">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1545</v>
+      </c>
+      <c r="B168">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1546</v>
+      </c>
+      <c r="B169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1547</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1548</v>
+      </c>
+      <c r="B171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1549</v>
+      </c>
+      <c r="B172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1550</v>
+      </c>
+      <c r="B173">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Grafton/Documents/GitHub/me644/project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grafton/Documents/GitHub/me644/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E32CF-C30F-BB40-9285-F8114C3A5EC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{555BF748-B8B6-1F46-AB86-5F3DD1C61019}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37480" windowHeight="24100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Center Check" sheetId="3" r:id="rId1"/>
-    <sheet name="RHS A" sheetId="2" r:id="rId2"/>
-    <sheet name="LHS A" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" r:id="rId1"/>
+    <sheet name="LHS A" sheetId="4" r:id="rId2"/>
+    <sheet name="LHS B" sheetId="7" r:id="rId3"/>
+    <sheet name="RHS A" sheetId="2" r:id="rId4"/>
+    <sheet name="RHS B" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="lhs_a" localSheetId="2">'LHS A'!$A$1:$B$173</definedName>
-    <definedName name="rhs_a" localSheetId="1">'RHS A'!#REF!</definedName>
-    <definedName name="rhs_a_1" localSheetId="1">'RHS A'!$A$1:$B$173</definedName>
+    <definedName name="lhs_a" localSheetId="1">'LHS A'!$A$1:$B$173</definedName>
+    <definedName name="rhs_a" localSheetId="3">'RHS A'!#REF!</definedName>
+    <definedName name="rhs_a_1" localSheetId="3">'RHS A'!$A$1:$B$173</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,15 +35,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{31DD2473-E75E-724B-97B0-0D3BC3BF40D6}" name="lhs-a" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/lhs-a.csv" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="lhs-a" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/lhs-a.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/rhs-a.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve"> Measured T Pass</t>
   </si>
@@ -75,12 +77,30 @@
   <si>
     <t>LHS</t>
   </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>Servo Centers</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +116,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -113,17 +150,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -144,6 +558,2346 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LHS A'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Measured T Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$2:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="172"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$2:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="172"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA71-684F-B99A-2CF6D96AFD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402383968"/>
+        <c:axId val="547306080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402383968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1550"/>
+          <c:min val="1350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547306080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547306080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402383968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region &lt; Center</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44158588995452031"/>
+          <c:y val="1.511879049676026E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8921778418878564E-2"/>
+                  <c:y val="-0.17472491964422374"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$110:$A$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$110:$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C5F-214D-869C-4E86C43940AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547300416"/>
+        <c:axId val="503006432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547300416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503006432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503006432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547300416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Region &gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Center</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6934573592808673E-2"/>
+                  <c:y val="-0.72160623089142062"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LHS A'!$A$129:$A$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LHS A'!$B$129:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76F1-5240-B24E-64105656481B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547533856"/>
+        <c:axId val="548259040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547533856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548259040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548259040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547533856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -450,7 +3204,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -811,7 +3565,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2157,7 +4911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2663,7 +5417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3095,2344 +5849,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="828087616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Full Dataset</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'LHS A'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Measured T Pass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'LHS A'!$A$2:$A$173</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
-                <c:pt idx="0">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1354</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1357</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1358</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1361</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1363</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1364</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1365</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1367</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1369</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1370</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1371</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1373</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1376</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1377</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1378</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1380</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1381</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1382</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1383</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1384</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1386</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1387</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1388</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1389</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1391</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1392</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1393</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1395</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1397</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1398</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1399</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1401</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1403</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1404</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1405</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1406</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1407</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1408</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1409</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1411</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1412</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1413</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1415</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1416</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1417</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1418</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1419</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1421</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1424</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1425</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1426</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1427</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1428</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1429</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1431</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1432</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1433</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1434</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1435</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1436</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1437</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1438</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1439</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1441</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1443</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1444</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1445</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1446</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1447</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1448</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1449</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1451</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1452</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1453</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1454</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1455</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1456</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1457</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1458</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1459</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1462</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1463</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1464</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1465</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1466</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1468</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1469</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1470</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1471</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1473</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1474</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1475</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1476</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1506</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1507</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1508</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1509</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1511</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1512</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1513</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1515</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1517</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1518</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1519</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1521</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1522</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1523</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1524</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1525</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1527</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1528</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1529</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1530</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1531</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1532</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1533</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1534</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1535</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1537</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1538</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1539</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1540</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1541</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1542</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1543</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1544</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1545</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1546</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1547</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1548</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1549</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'LHS A'!$B$2:$B$173</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA71-684F-B99A-2CF6D96AFD24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="402383968"/>
-        <c:axId val="547306080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="402383968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547306080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="547306080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="402383968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Linear Region &lt; Center</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44158588995452031"/>
-          <c:y val="1.511879049676026E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.8921778418878564E-2"/>
-                  <c:y val="-0.17472491964422374"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'LHS A'!$A$110:$A$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1463</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1465</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1466</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1468</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1469</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1470</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1471</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1473</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1474</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1475</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1476</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'LHS A'!$B$110:$B$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>107</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C5F-214D-869C-4E86C43940AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="547300416"/>
-        <c:axId val="503006432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="547300416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="503006432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="503006432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547300416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Linear Region &gt;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Center</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.6934573592808673E-2"/>
-                  <c:y val="-0.72160623089142062"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'LHS A'!$A$129:$A$150</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1509</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1511</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1513</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1515</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1517</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1518</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1519</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1521</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1522</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1523</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1524</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1525</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1527</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'LHS A'!$B$129:$B$150</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76F1-5240-B24E-64105656481B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="547533856"/>
-        <c:axId val="548259040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="547533856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="548259040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="548259040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547533856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9940,6 +10356,119 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD55137-80C4-824A-B859-DA68E3B32320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E1D773-62F6-D146-8C88-0ED9C5D73EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAB8553-D2B0-7646-8BE0-37CDACD54639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>402</xdr:row>
@@ -10012,8 +10541,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -10121,125 +10650,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD55137-80C4-824A-B859-DA68E3B32320}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E1D773-62F6-D146-8C88-0ED9C5D73EF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAB8553-D2B0-7646-8BE0-37CDACD54639}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-a" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-a" connectionId="1" xr16:uid="{ABBD3DF8-C691-E446-835B-DBBDC02394BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10539,72 +10955,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D525BC1C-EB49-EC40-8F49-77B7D3775B72}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>1487</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1494</v>
+      </c>
+      <c r="D5" s="23">
+        <f>C5-((C5-B5)/2)</f>
+        <v>1490.5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1465</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1472</v>
+      </c>
+      <c r="G5" s="25">
+        <f>F5-((F5-E5)/2)</f>
+        <v>1468.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="2:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1465</v>
-      </c>
-      <c r="B3">
-        <v>1472</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3-((B3-A3)/2)</f>
-        <v>1468.5</v>
-      </c>
-      <c r="G3">
-        <v>1487</v>
-      </c>
-      <c r="H3">
-        <v>1494</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3-((H3-G3)/2)</f>
-        <v>1490.5</v>
-      </c>
+      <c r="D9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3.1812500000000004</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="D11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10612,11 +11079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A6DA7-5A93-044B-9FE3-F7099E72EAD2}">
-  <dimension ref="A1:B173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2581D9B6-B24D-C04E-8CCD-6F4115F4ED06}">
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A126" sqref="A107:B126"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10625,7 +11092,7 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10633,124 +11100,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1350</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1351</v>
       </c>
       <c r="B3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1352</v>
       </c>
       <c r="B4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1353</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(3.4912+2.8713)/2</f>
+        <v>3.1812500000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1354</v>
       </c>
       <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1355</v>
       </c>
       <c r="B7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1356</v>
       </c>
       <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1357</v>
       </c>
       <c r="B9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1358</v>
       </c>
       <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1359</v>
       </c>
       <c r="B11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1360</v>
       </c>
       <c r="B12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1361</v>
       </c>
       <c r="B13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1362</v>
       </c>
       <c r="B14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1363</v>
       </c>
       <c r="B15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1364</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -10758,7 +11232,7 @@
         <v>1365</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -10766,7 +11240,7 @@
         <v>1366</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -10782,7 +11256,7 @@
         <v>1368</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -10790,7 +11264,7 @@
         <v>1369</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -10798,7 +11272,7 @@
         <v>1370</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -10806,7 +11280,7 @@
         <v>1371</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -10814,7 +11288,7 @@
         <v>1372</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -10822,7 +11296,7 @@
         <v>1373</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -10830,7 +11304,7 @@
         <v>1374</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10838,7 +11312,7 @@
         <v>1375</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -10846,7 +11320,7 @@
         <v>1376</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -10854,7 +11328,7 @@
         <v>1377</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -10862,7 +11336,7 @@
         <v>1378</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -10870,7 +11344,7 @@
         <v>1379</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -10878,7 +11352,7 @@
         <v>1380</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10886,7 +11360,7 @@
         <v>1381</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -10894,7 +11368,7 @@
         <v>1382</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -10902,7 +11376,7 @@
         <v>1383</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -10910,7 +11384,7 @@
         <v>1384</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -10918,7 +11392,7 @@
         <v>1385</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -10926,7 +11400,7 @@
         <v>1386</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -10934,7 +11408,7 @@
         <v>1387</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -10942,7 +11416,7 @@
         <v>1388</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -10950,7 +11424,7 @@
         <v>1389</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -10958,7 +11432,7 @@
         <v>1390</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -10966,7 +11440,7 @@
         <v>1391</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -10974,7 +11448,7 @@
         <v>1392</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -10982,7 +11456,7 @@
         <v>1393</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -10990,7 +11464,7 @@
         <v>1394</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -10998,7 +11472,7 @@
         <v>1395</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -11006,7 +11480,7 @@
         <v>1396</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -11014,7 +11488,7 @@
         <v>1397</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -11022,7 +11496,7 @@
         <v>1398</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -11030,7 +11504,7 @@
         <v>1399</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -11038,7 +11512,7 @@
         <v>1400</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -11046,7 +11520,7 @@
         <v>1401</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -11054,7 +11528,7 @@
         <v>1402</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -11062,7 +11536,7 @@
         <v>1403</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -11070,7 +11544,7 @@
         <v>1404</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -11078,7 +11552,7 @@
         <v>1405</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -11086,7 +11560,7 @@
         <v>1406</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -11094,7 +11568,7 @@
         <v>1407</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -11102,7 +11576,7 @@
         <v>1408</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -11110,7 +11584,7 @@
         <v>1409</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -11118,7 +11592,7 @@
         <v>1410</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -11126,7 +11600,7 @@
         <v>1411</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -11134,7 +11608,7 @@
         <v>1412</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -11142,7 +11616,7 @@
         <v>1413</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -11150,7 +11624,7 @@
         <v>1414</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -11158,7 +11632,7 @@
         <v>1415</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -11166,7 +11640,7 @@
         <v>1416</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -11174,7 +11648,7 @@
         <v>1417</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -11182,7 +11656,7 @@
         <v>1418</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -11190,7 +11664,7 @@
         <v>1419</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -11198,7 +11672,7 @@
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -11206,7 +11680,7 @@
         <v>1421</v>
       </c>
       <c r="B73">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -11214,7 +11688,7 @@
         <v>1422</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -11222,7 +11696,7 @@
         <v>1423</v>
       </c>
       <c r="B75">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -11230,7 +11704,7 @@
         <v>1424</v>
       </c>
       <c r="B76">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -11238,7 +11712,7 @@
         <v>1425</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -11246,7 +11720,7 @@
         <v>1426</v>
       </c>
       <c r="B78">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -11254,7 +11728,7 @@
         <v>1427</v>
       </c>
       <c r="B79">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -11262,7 +11736,7 @@
         <v>1428</v>
       </c>
       <c r="B80">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -11270,7 +11744,7 @@
         <v>1429</v>
       </c>
       <c r="B81">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -11278,7 +11752,7 @@
         <v>1430</v>
       </c>
       <c r="B82">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -11286,7 +11760,7 @@
         <v>1431</v>
       </c>
       <c r="B83">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -11294,7 +11768,7 @@
         <v>1432</v>
       </c>
       <c r="B84">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -11302,7 +11776,7 @@
         <v>1433</v>
       </c>
       <c r="B85">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -11310,7 +11784,7 @@
         <v>1434</v>
       </c>
       <c r="B86">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -11318,7 +11792,7 @@
         <v>1435</v>
       </c>
       <c r="B87">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -11326,7 +11800,7 @@
         <v>1436</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -11334,7 +11808,7 @@
         <v>1437</v>
       </c>
       <c r="B89">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -11342,7 +11816,7 @@
         <v>1438</v>
       </c>
       <c r="B90">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -11350,7 +11824,7 @@
         <v>1439</v>
       </c>
       <c r="B91">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -11358,7 +11832,7 @@
         <v>1440</v>
       </c>
       <c r="B92">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -11366,7 +11840,7 @@
         <v>1441</v>
       </c>
       <c r="B93">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -11374,7 +11848,7 @@
         <v>1442</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -11382,7 +11856,7 @@
         <v>1443</v>
       </c>
       <c r="B95">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -11390,7 +11864,7 @@
         <v>1444</v>
       </c>
       <c r="B96">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -11398,7 +11872,7 @@
         <v>1445</v>
       </c>
       <c r="B97">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -11406,7 +11880,7 @@
         <v>1446</v>
       </c>
       <c r="B98">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -11414,7 +11888,7 @@
         <v>1447</v>
       </c>
       <c r="B99">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -11422,7 +11896,7 @@
         <v>1448</v>
       </c>
       <c r="B100">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -11430,7 +11904,7 @@
         <v>1449</v>
       </c>
       <c r="B101">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -11438,7 +11912,7 @@
         <v>1450</v>
       </c>
       <c r="B102">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -11446,7 +11920,7 @@
         <v>1451</v>
       </c>
       <c r="B103">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -11454,7 +11928,7 @@
         <v>1452</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -11462,7 +11936,7 @@
         <v>1453</v>
       </c>
       <c r="B105">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -11470,183 +11944,183 @@
         <v>1454</v>
       </c>
       <c r="B106">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1484</v>
+        <v>1455</v>
       </c>
       <c r="B107">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1485</v>
+        <v>1456</v>
       </c>
       <c r="B108">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1486</v>
+        <v>1457</v>
       </c>
       <c r="B109">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1487</v>
+        <v>1458</v>
       </c>
       <c r="B110">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1488</v>
+        <v>1459</v>
       </c>
       <c r="B111">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1489</v>
+        <v>1460</v>
       </c>
       <c r="B112">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="B113">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1491</v>
+        <v>1462</v>
       </c>
       <c r="B114">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1492</v>
+        <v>1463</v>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1493</v>
+        <v>1464</v>
       </c>
       <c r="B116">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1494</v>
+        <v>1465</v>
       </c>
       <c r="B117">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1495</v>
+        <v>1466</v>
       </c>
       <c r="B118">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1496</v>
+        <v>1467</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1497</v>
+        <v>1468</v>
       </c>
       <c r="B120">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1498</v>
+        <v>1469</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1499</v>
+        <v>1470</v>
       </c>
       <c r="B122">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1500</v>
+        <v>1471</v>
       </c>
       <c r="B123">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1501</v>
+        <v>1472</v>
       </c>
       <c r="B124">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1502</v>
+        <v>1473</v>
       </c>
       <c r="B125">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1503</v>
+        <v>1474</v>
       </c>
       <c r="B126">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1504</v>
+        <v>1475</v>
       </c>
       <c r="B127">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1505</v>
+        <v>1476</v>
       </c>
       <c r="B128">
-        <v>41</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -11654,7 +12128,7 @@
         <v>1506</v>
       </c>
       <c r="B129">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -11662,7 +12136,7 @@
         <v>1507</v>
       </c>
       <c r="B130">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -11670,7 +12144,7 @@
         <v>1508</v>
       </c>
       <c r="B131">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -11678,7 +12152,7 @@
         <v>1509</v>
       </c>
       <c r="B132">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -11686,7 +12160,7 @@
         <v>1510</v>
       </c>
       <c r="B133">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -11694,7 +12168,7 @@
         <v>1511</v>
       </c>
       <c r="B134">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -11702,7 +12176,7 @@
         <v>1512</v>
       </c>
       <c r="B135">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -11710,7 +12184,7 @@
         <v>1513</v>
       </c>
       <c r="B136">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -11718,7 +12192,7 @@
         <v>1514</v>
       </c>
       <c r="B137">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -11726,7 +12200,7 @@
         <v>1515</v>
       </c>
       <c r="B138">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -11734,7 +12208,7 @@
         <v>1516</v>
       </c>
       <c r="B139">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -11742,7 +12216,7 @@
         <v>1517</v>
       </c>
       <c r="B140">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -11750,7 +12224,7 @@
         <v>1518</v>
       </c>
       <c r="B141">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -11758,7 +12232,7 @@
         <v>1519</v>
       </c>
       <c r="B142">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -11766,7 +12240,7 @@
         <v>1520</v>
       </c>
       <c r="B143">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -11774,7 +12248,7 @@
         <v>1521</v>
       </c>
       <c r="B144">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -11782,7 +12256,7 @@
         <v>1522</v>
       </c>
       <c r="B145">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -11790,7 +12264,7 @@
         <v>1523</v>
       </c>
       <c r="B146">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -11798,7 +12272,7 @@
         <v>1524</v>
       </c>
       <c r="B147">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -11806,7 +12280,7 @@
         <v>1525</v>
       </c>
       <c r="B148">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -11822,7 +12296,7 @@
         <v>1527</v>
       </c>
       <c r="B150">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -11830,7 +12304,7 @@
         <v>1528</v>
       </c>
       <c r="B151">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -11838,7 +12312,7 @@
         <v>1529</v>
       </c>
       <c r="B152">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -11846,7 +12320,7 @@
         <v>1530</v>
       </c>
       <c r="B153">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -11854,7 +12328,7 @@
         <v>1531</v>
       </c>
       <c r="B154">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -11862,7 +12336,7 @@
         <v>1532</v>
       </c>
       <c r="B155">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -11870,7 +12344,7 @@
         <v>1533</v>
       </c>
       <c r="B156">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -11878,7 +12352,7 @@
         <v>1534</v>
       </c>
       <c r="B157">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -11886,7 +12360,7 @@
         <v>1535</v>
       </c>
       <c r="B158">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -11894,7 +12368,7 @@
         <v>1536</v>
       </c>
       <c r="B159">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -11902,7 +12376,7 @@
         <v>1537</v>
       </c>
       <c r="B160">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -11910,7 +12384,7 @@
         <v>1538</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -11918,7 +12392,7 @@
         <v>1539</v>
       </c>
       <c r="B162">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -11926,7 +12400,7 @@
         <v>1540</v>
       </c>
       <c r="B163">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -11934,7 +12408,7 @@
         <v>1541</v>
       </c>
       <c r="B164">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -11942,7 +12416,7 @@
         <v>1542</v>
       </c>
       <c r="B165">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -11950,7 +12424,7 @@
         <v>1543</v>
       </c>
       <c r="B166">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -11958,7 +12432,7 @@
         <v>1544</v>
       </c>
       <c r="B167">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -11966,7 +12440,7 @@
         <v>1545</v>
       </c>
       <c r="B168">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -11974,7 +12448,7 @@
         <v>1546</v>
       </c>
       <c r="B169">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -11982,7 +12456,7 @@
         <v>1547</v>
       </c>
       <c r="B170">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -12006,21 +12480,34 @@
         <v>1550</v>
       </c>
       <c r="B173">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2581D9B6-B24D-C04E-8CCD-6F4115F4ED06}">
-  <dimension ref="A1:B173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EFA069-B768-7940-AA18-B0F53884D041}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A6DA7-5A93-044B-9FE3-F7099E72EAD2}">
+  <dimension ref="A1:E173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12029,7 +12516,7 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12037,124 +12524,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1350</v>
       </c>
       <c r="B2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1351</v>
       </c>
       <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1352</v>
       </c>
       <c r="B4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1353</v>
       </c>
       <c r="B5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(4.4051+3.8729)/2</f>
+        <v>4.1390000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1354</v>
       </c>
       <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1355</v>
       </c>
       <c r="B7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1356</v>
       </c>
       <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1357</v>
       </c>
       <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1358</v>
       </c>
       <c r="B10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1359</v>
       </c>
       <c r="B11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1360</v>
       </c>
       <c r="B12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1361</v>
       </c>
       <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1362</v>
       </c>
       <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1363</v>
       </c>
       <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1364</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12162,7 +12656,7 @@
         <v>1365</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12170,7 +12664,7 @@
         <v>1366</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12186,7 +12680,7 @@
         <v>1368</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12194,7 +12688,7 @@
         <v>1369</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12202,7 +12696,7 @@
         <v>1370</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12210,7 +12704,7 @@
         <v>1371</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12218,7 +12712,7 @@
         <v>1372</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -12226,7 +12720,7 @@
         <v>1373</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -12234,7 +12728,7 @@
         <v>1374</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12242,7 +12736,7 @@
         <v>1375</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -12250,7 +12744,7 @@
         <v>1376</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -12258,7 +12752,7 @@
         <v>1377</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12266,7 +12760,7 @@
         <v>1378</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -12274,7 +12768,7 @@
         <v>1379</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -12282,7 +12776,7 @@
         <v>1380</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12784,7 @@
         <v>1381</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -12298,7 +12792,7 @@
         <v>1382</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -12306,7 +12800,7 @@
         <v>1383</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -12314,7 +12808,7 @@
         <v>1384</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -12322,7 +12816,7 @@
         <v>1385</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -12330,7 +12824,7 @@
         <v>1386</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -12338,7 +12832,7 @@
         <v>1387</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -12346,7 +12840,7 @@
         <v>1388</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -12354,7 +12848,7 @@
         <v>1389</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12856,7 @@
         <v>1390</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -12370,7 +12864,7 @@
         <v>1391</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -12378,7 +12872,7 @@
         <v>1392</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -12386,7 +12880,7 @@
         <v>1393</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -12394,7 +12888,7 @@
         <v>1394</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -12402,7 +12896,7 @@
         <v>1395</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -12410,7 +12904,7 @@
         <v>1396</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -12418,7 +12912,7 @@
         <v>1397</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -12426,7 +12920,7 @@
         <v>1398</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12928,7 @@
         <v>1399</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -12442,7 +12936,7 @@
         <v>1400</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -12450,7 +12944,7 @@
         <v>1401</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -12458,7 +12952,7 @@
         <v>1402</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -12466,7 +12960,7 @@
         <v>1403</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -12474,7 +12968,7 @@
         <v>1404</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -12482,7 +12976,7 @@
         <v>1405</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -12490,7 +12984,7 @@
         <v>1406</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -12498,7 +12992,7 @@
         <v>1407</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -12506,7 +13000,7 @@
         <v>1408</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -12514,7 +13008,7 @@
         <v>1409</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -12522,7 +13016,7 @@
         <v>1410</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -12530,7 +13024,7 @@
         <v>1411</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -12538,7 +13032,7 @@
         <v>1412</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -12546,7 +13040,7 @@
         <v>1413</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -12554,7 +13048,7 @@
         <v>1414</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -12562,7 +13056,7 @@
         <v>1415</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -12570,7 +13064,7 @@
         <v>1416</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -12578,7 +13072,7 @@
         <v>1417</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -12586,7 +13080,7 @@
         <v>1418</v>
       </c>
       <c r="B70">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -12594,7 +13088,7 @@
         <v>1419</v>
       </c>
       <c r="B71">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -12602,7 +13096,7 @@
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -12610,7 +13104,7 @@
         <v>1421</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -12618,7 +13112,7 @@
         <v>1422</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -12626,7 +13120,7 @@
         <v>1423</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -12634,7 +13128,7 @@
         <v>1424</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -12642,7 +13136,7 @@
         <v>1425</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -12650,7 +13144,7 @@
         <v>1426</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -12658,7 +13152,7 @@
         <v>1427</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -12666,7 +13160,7 @@
         <v>1428</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -12674,7 +13168,7 @@
         <v>1429</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -12682,7 +13176,7 @@
         <v>1430</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -12690,7 +13184,7 @@
         <v>1431</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -12698,7 +13192,7 @@
         <v>1432</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -12706,7 +13200,7 @@
         <v>1433</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -12714,7 +13208,7 @@
         <v>1434</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -12722,7 +13216,7 @@
         <v>1435</v>
       </c>
       <c r="B87">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -12730,7 +13224,7 @@
         <v>1436</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -12738,7 +13232,7 @@
         <v>1437</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -12746,7 +13240,7 @@
         <v>1438</v>
       </c>
       <c r="B90">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -12754,7 +13248,7 @@
         <v>1439</v>
       </c>
       <c r="B91">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -12762,7 +13256,7 @@
         <v>1440</v>
       </c>
       <c r="B92">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -12770,7 +13264,7 @@
         <v>1441</v>
       </c>
       <c r="B93">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -12778,7 +13272,7 @@
         <v>1442</v>
       </c>
       <c r="B94">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -12786,7 +13280,7 @@
         <v>1443</v>
       </c>
       <c r="B95">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -12794,7 +13288,7 @@
         <v>1444</v>
       </c>
       <c r="B96">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -12802,7 +13296,7 @@
         <v>1445</v>
       </c>
       <c r="B97">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -12810,7 +13304,7 @@
         <v>1446</v>
       </c>
       <c r="B98">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -12818,7 +13312,7 @@
         <v>1447</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -12826,7 +13320,7 @@
         <v>1448</v>
       </c>
       <c r="B100">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -12834,7 +13328,7 @@
         <v>1449</v>
       </c>
       <c r="B101">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -12842,7 +13336,7 @@
         <v>1450</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -12850,7 +13344,7 @@
         <v>1451</v>
       </c>
       <c r="B103">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -12858,7 +13352,7 @@
         <v>1452</v>
       </c>
       <c r="B104">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -12866,7 +13360,7 @@
         <v>1453</v>
       </c>
       <c r="B105">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -12874,183 +13368,183 @@
         <v>1454</v>
       </c>
       <c r="B106">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1455</v>
+        <v>1484</v>
       </c>
       <c r="B107">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1456</v>
+        <v>1485</v>
       </c>
       <c r="B108">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1457</v>
+        <v>1486</v>
       </c>
       <c r="B109">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1458</v>
+        <v>1487</v>
       </c>
       <c r="B110">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1459</v>
+        <v>1488</v>
       </c>
       <c r="B111">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1460</v>
+        <v>1489</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1461</v>
+        <v>1490</v>
       </c>
       <c r="B113">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1462</v>
+        <v>1491</v>
       </c>
       <c r="B114">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1463</v>
+        <v>1492</v>
       </c>
       <c r="B115">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1464</v>
+        <v>1493</v>
       </c>
       <c r="B116">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1465</v>
+        <v>1494</v>
       </c>
       <c r="B117">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1466</v>
+        <v>1495</v>
       </c>
       <c r="B118">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1467</v>
+        <v>1496</v>
       </c>
       <c r="B119">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1468</v>
+        <v>1497</v>
       </c>
       <c r="B120">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1469</v>
+        <v>1498</v>
       </c>
       <c r="B121">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1470</v>
+        <v>1499</v>
       </c>
       <c r="B122">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1471</v>
+        <v>1500</v>
       </c>
       <c r="B123">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1472</v>
+        <v>1501</v>
       </c>
       <c r="B124">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1473</v>
+        <v>1502</v>
       </c>
       <c r="B125">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1474</v>
+        <v>1503</v>
       </c>
       <c r="B126">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1475</v>
+        <v>1504</v>
       </c>
       <c r="B127">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1476</v>
+        <v>1505</v>
       </c>
       <c r="B128">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -13058,7 +13552,7 @@
         <v>1506</v>
       </c>
       <c r="B129">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -13066,7 +13560,7 @@
         <v>1507</v>
       </c>
       <c r="B130">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -13074,7 +13568,7 @@
         <v>1508</v>
       </c>
       <c r="B131">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -13082,7 +13576,7 @@
         <v>1509</v>
       </c>
       <c r="B132">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -13090,7 +13584,7 @@
         <v>1510</v>
       </c>
       <c r="B133">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -13098,7 +13592,7 @@
         <v>1511</v>
       </c>
       <c r="B134">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -13106,7 +13600,7 @@
         <v>1512</v>
       </c>
       <c r="B135">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -13114,7 +13608,7 @@
         <v>1513</v>
       </c>
       <c r="B136">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -13122,7 +13616,7 @@
         <v>1514</v>
       </c>
       <c r="B137">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -13130,7 +13624,7 @@
         <v>1515</v>
       </c>
       <c r="B138">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -13138,7 +13632,7 @@
         <v>1516</v>
       </c>
       <c r="B139">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -13146,7 +13640,7 @@
         <v>1517</v>
       </c>
       <c r="B140">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -13154,7 +13648,7 @@
         <v>1518</v>
       </c>
       <c r="B141">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -13162,7 +13656,7 @@
         <v>1519</v>
       </c>
       <c r="B142">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -13170,7 +13664,7 @@
         <v>1520</v>
       </c>
       <c r="B143">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -13178,7 +13672,7 @@
         <v>1521</v>
       </c>
       <c r="B144">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -13186,7 +13680,7 @@
         <v>1522</v>
       </c>
       <c r="B145">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -13194,7 +13688,7 @@
         <v>1523</v>
       </c>
       <c r="B146">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -13202,7 +13696,7 @@
         <v>1524</v>
       </c>
       <c r="B147">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -13210,7 +13704,7 @@
         <v>1525</v>
       </c>
       <c r="B148">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -13226,7 +13720,7 @@
         <v>1527</v>
       </c>
       <c r="B150">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -13234,7 +13728,7 @@
         <v>1528</v>
       </c>
       <c r="B151">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -13242,7 +13736,7 @@
         <v>1529</v>
       </c>
       <c r="B152">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -13250,7 +13744,7 @@
         <v>1530</v>
       </c>
       <c r="B153">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -13258,7 +13752,7 @@
         <v>1531</v>
       </c>
       <c r="B154">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -13266,7 +13760,7 @@
         <v>1532</v>
       </c>
       <c r="B155">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -13274,7 +13768,7 @@
         <v>1533</v>
       </c>
       <c r="B156">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -13282,7 +13776,7 @@
         <v>1534</v>
       </c>
       <c r="B157">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -13290,7 +13784,7 @@
         <v>1535</v>
       </c>
       <c r="B158">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -13298,7 +13792,7 @@
         <v>1536</v>
       </c>
       <c r="B159">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -13306,7 +13800,7 @@
         <v>1537</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -13314,7 +13808,7 @@
         <v>1538</v>
       </c>
       <c r="B161">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -13322,7 +13816,7 @@
         <v>1539</v>
       </c>
       <c r="B162">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -13330,7 +13824,7 @@
         <v>1540</v>
       </c>
       <c r="B163">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -13338,7 +13832,7 @@
         <v>1541</v>
       </c>
       <c r="B164">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -13346,7 +13840,7 @@
         <v>1542</v>
       </c>
       <c r="B165">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -13354,7 +13848,7 @@
         <v>1543</v>
       </c>
       <c r="B166">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -13362,7 +13856,7 @@
         <v>1544</v>
       </c>
       <c r="B167">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -13370,7 +13864,7 @@
         <v>1545</v>
       </c>
       <c r="B168">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -13378,7 +13872,7 @@
         <v>1546</v>
       </c>
       <c r="B169">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -13386,7 +13880,7 @@
         <v>1547</v>
       </c>
       <c r="B170">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -13410,11 +13904,23 @@
         <v>1550</v>
       </c>
       <c r="B173">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEAC89-D4A4-E04B-A2BE-B1AF9ED4BC5C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10780" windowHeight="6770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t xml:space="preserve"> Measured T Pass</t>
   </si>
@@ -115,6 +115,12 @@
   <si>
     <t>Steady State:</t>
   </si>
+  <si>
+    <t>T_pass:</t>
+  </si>
+  <si>
+    <t>tau_cl:</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -492,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +561,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,20 +606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -27664,8 +27673,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449034" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -27760,7 +27769,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -27832,8 +27841,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449034" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -27928,7 +27937,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -28834,34 +28843,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
@@ -28907,11 +28916,11 @@
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
@@ -28922,8 +28931,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23">
+        <v>3.9361330495206586</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16" t="s">
@@ -28935,8 +28946,10 @@
       <c r="D10" s="5">
         <v>4.1390000000000002</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28">
+        <v>4.2841012009485446</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
@@ -28966,8 +28979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29040,10 +29053,10 @@
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="26">
         <f>AVERAGE(B2:B98)</f>
         <v>18.402061855670102</v>
       </c>
@@ -29063,6 +29076,13 @@
       <c r="B9">
         <v>15</v>
       </c>
+      <c r="D9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="26">
+        <f>AVERAGE(E22:E25)</f>
+        <v>107.25</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -29079,6 +29099,13 @@
       <c r="B11">
         <v>14</v>
       </c>
+      <c r="D11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="25">
+        <f>E7/LN(E9)</f>
+        <v>3.9361330495206586</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -29120,7 +29147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1365</v>
       </c>
@@ -29128,7 +29155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1366</v>
       </c>
@@ -29136,7 +29163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1367</v>
       </c>
@@ -29144,7 +29171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1368</v>
       </c>
@@ -29152,7 +29179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1369</v>
       </c>
@@ -29160,39 +29187,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1370</v>
       </c>
       <c r="B22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1371</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1372</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1373</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1374</v>
       </c>
@@ -29200,7 +29239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1375</v>
       </c>
@@ -29208,7 +29247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1376</v>
       </c>
@@ -29216,7 +29255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1377</v>
       </c>
@@ -29224,7 +29263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1378</v>
       </c>
@@ -29232,7 +29271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1379</v>
       </c>
@@ -29240,7 +29279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1380</v>
       </c>
@@ -30468,10 +30507,10 @@
       <c r="B8">
         <v>17</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="26">
         <f>AVERAGE(B3:B99)</f>
         <v>17.422680412371133</v>
       </c>
@@ -38206,8 +38245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38279,10 +38318,10 @@
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="26">
         <f>AVERAGE(B2:B51)</f>
         <v>20.94</v>
       </c>
@@ -38302,6 +38341,13 @@
       <c r="B9">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="27">
+        <f>AVERAGE(E13:E18)</f>
+        <v>132.66666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -38318,6 +38364,13 @@
       <c r="B11">
         <v>21</v>
       </c>
+      <c r="D11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="25">
+        <f>E7/LN(E9)</f>
+        <v>4.2841012009485446</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -38334,6 +38387,9 @@
       <c r="B13">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -38342,6 +38398,9 @@
       <c r="B14">
         <v>19</v>
       </c>
+      <c r="E14">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -38350,6 +38409,9 @@
       <c r="B15">
         <v>19</v>
       </c>
+      <c r="E15">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -38358,24 +38420,33 @@
       <c r="B16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1365</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1366</v>
       </c>
       <c r="B18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1367</v>
       </c>
@@ -38383,7 +38454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1368</v>
       </c>
@@ -38391,7 +38462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1369</v>
       </c>
@@ -38399,7 +38470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1370</v>
       </c>
@@ -38407,7 +38478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1371</v>
       </c>
@@ -38415,7 +38486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1372</v>
       </c>
@@ -38423,7 +38494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1373</v>
       </c>
@@ -38431,7 +38502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1374</v>
       </c>
@@ -38439,7 +38510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1375</v>
       </c>
@@ -38447,7 +38518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1376</v>
       </c>
@@ -38455,7 +38526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1377</v>
       </c>
@@ -38463,7 +38534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1378</v>
       </c>
@@ -38471,7 +38542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1379</v>
       </c>
@@ -38479,7 +38550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1380</v>
       </c>
@@ -39698,10 +39769,10 @@
       <c r="B7">
         <v>21</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="26">
         <f>AVERAGE(B2:B412)</f>
         <v>20.739659367396595</v>
       </c>

--- a/project2/servo calibration.xlsx
+++ b/project2/servo calibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grafton/Documents/GitHub/me644/project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grafton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{932BF78D-A4EC-A040-826D-22508A0C40EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5524D7D8-4B47-1043-8B68-865683D9BE89}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LHS B" sheetId="7" r:id="rId3"/>
     <sheet name="RHS A" sheetId="2" r:id="rId4"/>
     <sheet name="RHS B" sheetId="6" r:id="rId5"/>
+    <sheet name="PID" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="lhs_a" localSheetId="1">'LHS A'!$A$1:$B$173</definedName>
@@ -45,15 +46,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{AEACFB0E-CE1A-B94B-B908-BD5D1A0EA2DB}" name="lhs-b" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/grafton/Documents/GitHub/me644/project2/calibrations/lhs-b.csv" tab="0" comma="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="lhs-b" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/grafton/Documents/GitHub/me644/project2/calibrations/lhs-b.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="rhs-a1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/Grafton/Documents/GitHub/me644/project2/calibrations/rhs-a.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -61,8 +62,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{56BE1187-3B68-6D41-A8AB-64B66CF325F2}" name="rhs-b" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/grafton/Documents/GitHub/me644/project2/calibrations/rhs-b.csv" tab="0" comma="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="rhs-b" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/grafton/Documents/GitHub/me644/project2/calibrations/rhs-b.csv" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t xml:space="preserve"> Measured T Pass</t>
   </si>
@@ -113,15 +114,61 @@
   <si>
     <t>B:</t>
   </si>
+  <si>
+    <t>Steady State:</t>
+  </si>
+  <si>
+    <t>T_pass:</t>
+  </si>
+  <si>
+    <t>tau_cl:</t>
+  </si>
+  <si>
+    <t>(ms)</t>
+  </si>
+  <si>
+    <t>(s)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Kd</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>Kp [Kp/Kd]</t>
+  </si>
+  <si>
+    <t>Ki [Ki/Kd]</t>
+  </si>
+  <si>
+    <t>2% TS</t>
+  </si>
+  <si>
+    <t>ess</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>% OS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +201,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -463,11 +522,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +612,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,11 +662,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -27623,13 +27723,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="223779" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="449034" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -27643,8 +27743,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4413250" y="1612900"/>
-              <a:ext cx="223779" cy="172227"/>
+              <a:off x="3956050" y="1689100"/>
+              <a:ext cx="449034" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -27671,6 +27771,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -27701,6 +27802,18 @@
                           </a:rPr>
                           <m:t>𝐶𝐿</m:t>
                         </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝐻𝑆</m:t>
+                        </m:r>
                       </m:sub>
                     </m:sSub>
                   </m:oMath>
@@ -27711,7 +27824,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -27725,8 +27838,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4413250" y="1612900"/>
-              <a:ext cx="223779" cy="172227"/>
+              <a:off x="3956050" y="1689100"/>
+              <a:ext cx="449034" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -27753,18 +27866,187 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜏_</a:t>
+                <a:t>𝜏_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐶𝐿</a:t>
+                <a:t>𝐶𝐿, 𝑅𝐻𝑆)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="449034" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C536977-5950-4FF0-84DB-737A8BA202CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3956050" y="1511300"/>
+              <a:ext cx="449034" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶𝐿</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿𝐻𝑆</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C536977-5950-4FF0-84DB-737A8BA202CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3956050" y="1511300"/>
+              <a:ext cx="449034" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜏_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶𝐿, 𝐿𝐻𝑆)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -28301,20 +28583,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA1F267-98B0-144C-B63E-3180F7BE4D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="381000"/>
+          <a:ext cx="4927600" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-a" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-b" connectionId="2" xr16:uid="{6C900DF7-3172-6245-B960-1151CE584D27}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="lhs-b" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-a_1" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-b" connectionId="4" xr16:uid="{DB2F3844-BCF8-CB47-B668-276B951D7436}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rhs-b" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28613,39 +28950,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D525BC1C-EB49-EC40-8F49-77B7D3775B72}">
-  <dimension ref="B1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="2:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -28665,7 +29002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>1487</v>
       </c>
@@ -28687,15 +29024,21 @@
         <v>1468.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+    <row r="7" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="2:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="20" t="s">
         <v>6</v>
@@ -28704,12 +29047,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="32">
-        <v>3.9460000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="25"/>
+      <c r="G9" s="26">
+        <v>3.9361330495206586</v>
+      </c>
+      <c r="H9" s="27">
+        <f>G9/1000</f>
+        <v>3.9361330495206589E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
@@ -28719,8 +29066,16 @@
       <c r="D10" s="5">
         <v>4.1390000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29">
+        <v>4.2841012009485446</v>
+      </c>
+      <c r="H10" s="27">
+        <f>G10/1000</f>
+        <v>4.2841012009485445E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -28729,6 +29084,16 @@
       </c>
       <c r="D11" s="13">
         <v>10.0806</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>1/C10</f>
+        <v>0.3143418467583497</v>
+      </c>
+      <c r="D14">
+        <f>1/D10</f>
+        <v>0.24160425223483931</v>
       </c>
     </row>
   </sheetData>
@@ -28739,23 +29104,24 @@
     <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2581D9B6-B24D-C04E-8CCD-6F4115F4ED06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -28820,6 +29186,13 @@
       <c r="B7">
         <v>14</v>
       </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="23">
+        <f>AVERAGE(B2:B98)</f>
+        <v>18.402061855670102</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -28836,6 +29209,13 @@
       <c r="B9">
         <v>15</v>
       </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23">
+        <f>AVERAGE(E22:E25)</f>
+        <v>107.25</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -28852,6 +29232,13 @@
       <c r="B11">
         <v>14</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="22">
+        <f>E7/LN(E9)</f>
+        <v>3.9361330495206586</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -28893,7 +29280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1365</v>
       </c>
@@ -28901,7 +29288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1366</v>
       </c>
@@ -28909,7 +29296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1367</v>
       </c>
@@ -28917,7 +29304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1368</v>
       </c>
@@ -28925,7 +29312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1369</v>
       </c>
@@ -28933,39 +29320,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1370</v>
       </c>
       <c r="B22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1371</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1372</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1373</v>
       </c>
       <c r="B25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1374</v>
       </c>
@@ -28973,7 +29372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1375</v>
       </c>
@@ -28981,7 +29380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1376</v>
       </c>
@@ -28989,7 +29388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1377</v>
       </c>
@@ -28997,7 +29396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1378</v>
       </c>
@@ -29005,7 +29404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1379</v>
       </c>
@@ -29013,7 +29412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1380</v>
       </c>
@@ -30157,17 +30556,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EFA069-B768-7940-AA18-B0F53884D041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -30239,6 +30639,13 @@
       </c>
       <c r="B8">
         <v>17</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="23">
+        <f>AVERAGE(B3:B99)</f>
+        <v>17.422680412371133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -37968,17 +38375,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A6DA7-5A93-044B-9FE3-F7099E72EAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -38024,8 +38432,8 @@
         <v>7</v>
       </c>
       <c r="E5" s="2">
-        <f>(4.4051+3.8729)/2</f>
-        <v>4.1390000000000002</v>
+        <f>1/((4.4051+3.8729)/2)</f>
+        <v>0.24160425223483931</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -38043,6 +38451,13 @@
       <c r="B7">
         <v>20</v>
       </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="23">
+        <f>AVERAGE(B2:B51)</f>
+        <v>20.94</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -38059,6 +38474,13 @@
       <c r="B9">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="24">
+        <f>AVERAGE(E13:E18)</f>
+        <v>132.66666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -38075,6 +38497,13 @@
       <c r="B11">
         <v>21</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="22">
+        <f>E7/LN(E9)</f>
+        <v>4.2841012009485446</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -38091,6 +38520,9 @@
       <c r="B13">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -38099,6 +38531,9 @@
       <c r="B14">
         <v>19</v>
       </c>
+      <c r="E14">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -38107,6 +38542,9 @@
       <c r="B15">
         <v>19</v>
       </c>
+      <c r="E15">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -38115,24 +38553,33 @@
       <c r="B16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1365</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1366</v>
       </c>
       <c r="B18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1367</v>
       </c>
@@ -38140,7 +38587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1368</v>
       </c>
@@ -38148,7 +38595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1369</v>
       </c>
@@ -38156,7 +38603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1370</v>
       </c>
@@ -38164,7 +38611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1371</v>
       </c>
@@ -38172,7 +38619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1372</v>
       </c>
@@ -38180,7 +38627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1373</v>
       </c>
@@ -38188,7 +38635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1374</v>
       </c>
@@ -38196,7 +38643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1375</v>
       </c>
@@ -38204,7 +38651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1376</v>
       </c>
@@ -38212,7 +38659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1377</v>
       </c>
@@ -38220,7 +38667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1378</v>
       </c>
@@ -38228,7 +38675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1379</v>
       </c>
@@ -38236,7 +38683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1380</v>
       </c>
@@ -39379,17 +39826,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEAC89-D4A4-E04B-A2BE-B1AF9ED4BC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -39454,6 +39902,13 @@
       <c r="B7">
         <v>21</v>
       </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="23">
+        <f>AVERAGE(B2:B412)</f>
+        <v>20.739659367396595</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -47181,6 +47636,126 @@
       </c>
       <c r="B973">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2.5832999999999997E-4</v>
+      </c>
+      <c r="C2">
+        <f>3190*B2</f>
+        <v>0.82407269999999988</v>
+      </c>
+      <c r="D2">
+        <f>2540000*B2</f>
+        <v>656.15819999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="30">
+        <v>8.4541000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>73.820999999999998</v>
+      </c>
+      <c r="C4">
+        <f>B4*72.76</f>
+        <v>5371.2159600000005</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.67342999999999997</v>
+      </c>
+      <c r="C5">
+        <v>472</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
